--- a/Data Mix/ResultatExcel/Occitanie.xlsx
+++ b/Data Mix/ResultatExcel/Occitanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>8618360</v>
       </c>
       <c r="D2" t="n">
+        <v>6852157</v>
+      </c>
+      <c r="E2" t="n">
         <v>153116</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3698196</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>415368</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>68410</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2409534</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>107533</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>16371184</v>
       </c>
       <c r="D3" t="n">
+        <v>13792710</v>
+      </c>
+      <c r="E3" t="n">
         <v>264689</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7119207</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>832283</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>174774</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>5201363</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>200394</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>23749435</v>
       </c>
       <c r="D4" t="n">
+        <v>21059857</v>
+      </c>
+      <c r="E4" t="n">
         <v>437769</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>10717019</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1206196</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>326905</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8064919</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>307049</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>29791934</v>
       </c>
       <c r="D5" t="n">
+        <v>27861482</v>
+      </c>
+      <c r="E5" t="n">
         <v>445152</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>14166618</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1571479</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>498480</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>10802353</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>377400</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>35249960</v>
       </c>
       <c r="D6" t="n">
+        <v>35181065</v>
+      </c>
+      <c r="E6" t="n">
         <v>445193</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>17660772</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1998171</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>711524</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>13878924</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>486481</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>40061130</v>
       </c>
       <c r="D7" t="n">
+        <v>41326109</v>
+      </c>
+      <c r="E7" t="n">
         <v>473392</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>20677012</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>2395777</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>941449</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>16247449</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>591030</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>45565002</v>
       </c>
       <c r="D8" t="n">
+        <v>47054940</v>
+      </c>
+      <c r="E8" t="n">
         <v>473441</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>23741281</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>2547331</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1208664</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>18387701</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>696522</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>50737659</v>
       </c>
       <c r="D9" t="n">
+        <v>50748516</v>
+      </c>
+      <c r="E9" t="n">
         <v>473497</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>25272874</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2822470</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1439241</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>19937771</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>802663</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>55661028</v>
       </c>
       <c r="D10" t="n">
+        <v>55616493</v>
+      </c>
+      <c r="E10" t="n">
         <v>473583</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>28315039</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3142041</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1634836</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>21150106</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>900888</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>60840442</v>
       </c>
       <c r="D11" t="n">
+        <v>61103930</v>
+      </c>
+      <c r="E11" t="n">
         <v>481931</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>31788278</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3510505</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1781827</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>22533456</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1007933</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>67849292</v>
       </c>
       <c r="D12" t="n">
+        <v>66741545</v>
+      </c>
+      <c r="E12" t="n">
         <v>560439</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>34434170</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4000815</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>1866435</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>24756768</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>1122918</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>76036803</v>
       </c>
       <c r="D13" t="n">
+        <v>73297345</v>
+      </c>
+      <c r="E13" t="n">
         <v>658047</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>38121237</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>4377371</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1970495</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>26934470</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1235725</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>510532229</v>
       </c>
       <c r="D14" t="n">
+        <v>500636149</v>
+      </c>
+      <c r="E14" t="n">
         <v>5340249</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>255711703</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>28819807</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>12623040</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>190304814</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>7836536</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>83676810</v>
       </c>
       <c r="D15" t="n">
+        <v>80313440</v>
+      </c>
+      <c r="E15" t="n">
         <v>751307</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>41702593</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>4756550</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>2051156</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>29688171</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1363663</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>90585255</v>
       </c>
       <c r="D16" t="n">
+        <v>87627028</v>
+      </c>
+      <c r="E16" t="n">
         <v>837340</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>44979592</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>5152560</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>2175157</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>33004233</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1478146</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>97194006</v>
       </c>
       <c r="D17" t="n">
+        <v>95595981</v>
+      </c>
+      <c r="E17" t="n">
         <v>936440</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>48635731</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>5595087</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2408276</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>36407331</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1613116</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>102506830</v>
       </c>
       <c r="D18" t="n">
+        <v>102029844</v>
+      </c>
+      <c r="E18" t="n">
         <v>945231</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>51756143</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>5974061</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2659727</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>38984546</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1710136</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>107544983</v>
       </c>
       <c r="D19" t="n">
+        <v>107025318</v>
+      </c>
+      <c r="E19" t="n">
         <v>945239</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>53469370</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>6448312</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>2955466</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>41378448</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1828483</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>112500570</v>
       </c>
       <c r="D20" t="n">
+        <v>111404297</v>
+      </c>
+      <c r="E20" t="n">
         <v>945442</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>55099814</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>6729070</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>3283799</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>43436370</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1909802</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>117663427</v>
       </c>
       <c r="D21" t="n">
+        <v>115892004</v>
+      </c>
+      <c r="E21" t="n">
         <v>945479</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>56954717</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>7135654</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>3582613</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>45260391</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>2013150</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>122645465</v>
       </c>
       <c r="D22" t="n">
+        <v>120220951</v>
+      </c>
+      <c r="E22" t="n">
         <v>945496</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>59163578</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>7368495</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>3883729</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>46746161</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>2113492</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>127736804</v>
       </c>
       <c r="D23" t="n">
+        <v>124799376</v>
+      </c>
+      <c r="E23" t="n">
         <v>958833</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>62029794</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>7577915</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>4151506</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>47875950</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>2205378</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>132824450</v>
       </c>
       <c r="D24" t="n">
+        <v>128182956</v>
+      </c>
+      <c r="E24" t="n">
         <v>971859</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>63579506</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>7843574</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>4375773</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>49091194</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>2321050</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>138692867</v>
       </c>
       <c r="D25" t="n">
+        <v>131866160</v>
+      </c>
+      <c r="E25" t="n">
         <v>1069655</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>65175034</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>8217346</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>4487631</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>50460840</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>2455654</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>146569365</v>
       </c>
       <c r="D26" t="n">
+        <v>137866498</v>
+      </c>
+      <c r="E26" t="n">
         <v>1170229</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>67923874</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>8759271</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>4579880</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>52838473</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>2594771</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>2401205290</v>
       </c>
       <c r="D27" t="n">
+        <v>2344096151</v>
+      </c>
+      <c r="E27" t="n">
         <v>22103048</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1181893152</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>139197509</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>65840793</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>895781736</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>39279913</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>155118689</v>
       </c>
       <c r="D28" t="n">
+        <v>144500816</v>
+      </c>
+      <c r="E28" t="n">
         <v>1262193</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>71588701</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>9219777</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>4704870</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>55004533</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>2720742</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>163117440</v>
       </c>
       <c r="D29" t="n">
+        <v>151407154</v>
+      </c>
+      <c r="E29" t="n">
         <v>1343005</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>75003607</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>9658450</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>4864462</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>57697844</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>2839786</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>170116515</v>
       </c>
       <c r="D30" t="n">
+        <v>158727804</v>
+      </c>
+      <c r="E30" t="n">
         <v>1441300</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>78632935</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>10164621</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>5092805</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>60434949</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>2961194</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>175546451</v>
       </c>
       <c r="D31" t="n">
+        <v>165052188</v>
+      </c>
+      <c r="E31" t="n">
         <v>1441784</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>81914298</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>10517710</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>5427366</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>62690710</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>3060320</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>180495742</v>
       </c>
       <c r="D32" t="n">
+        <v>171609839</v>
+      </c>
+      <c r="E32" t="n">
         <v>1441871</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>85194224</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>10987488</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>5791259</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>65037397</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>3157600</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>185557401</v>
       </c>
       <c r="D33" t="n">
+        <v>177609857</v>
+      </c>
+      <c r="E33" t="n">
         <v>1442119</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>88595885</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>11262093</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>6187325</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>66874417</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>3248018</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>191308677</v>
       </c>
       <c r="D34" t="n">
+        <v>183058032</v>
+      </c>
+      <c r="E34" t="n">
         <v>1442164</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>91852117</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>11640499</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>6581241</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>68168701</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>3373310</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>196390197</v>
       </c>
       <c r="D35" t="n">
+        <v>186384701</v>
+      </c>
+      <c r="E35" t="n">
         <v>1442187</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>93295085</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>11950330</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>6944191</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>69245507</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>3507401</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>201255603</v>
       </c>
       <c r="D36" t="n">
+        <v>189706667</v>
+      </c>
+      <c r="E36" t="n">
         <v>1450912</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>94886189</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>12279006</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>7247294</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>70216604</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>3626662</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>206916351</v>
       </c>
       <c r="D37" t="n">
+        <v>195136729</v>
+      </c>
+      <c r="E37" t="n">
         <v>1451799</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>98554430</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>12622035</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>7474246</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>71301395</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>3732824</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>213181408</v>
       </c>
       <c r="D38" t="n">
+        <v>200753070</v>
+      </c>
+      <c r="E38" t="n">
         <v>1640930</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>101877866</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>13105623</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>7651739</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>72608719</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>3868193</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>220373591</v>
       </c>
       <c r="D39" t="n">
+        <v>206234511</v>
+      </c>
+      <c r="E39" t="n">
         <v>1726339</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>105345647</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>13395813</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>7787053</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>73972956</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>4006703</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>7061788645</v>
       </c>
       <c r="D40" t="n">
+        <v>6818373670</v>
+      </c>
+      <c r="E40" t="n">
         <v>61732699</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>3430527288</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>415198463</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>207435437</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>2584817204</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>118662579</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>228229791</v>
       </c>
       <c r="D41" t="n">
+        <v>212761458</v>
+      </c>
+      <c r="E41" t="n">
         <v>1982330</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>108855812</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>13769653</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>7904616</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>76103969</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>4145078</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>235466914</v>
       </c>
       <c r="D42" t="n">
+        <v>219529507</v>
+      </c>
+      <c r="E42" t="n">
         <v>2054107</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>112105998</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>14285000</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>8088933</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>78721690</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>4273779</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>242814726</v>
       </c>
       <c r="D43" t="n">
+        <v>226945515</v>
+      </c>
+      <c r="E43" t="n">
         <v>2136283</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>115695508</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>14754278</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>8374583</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>81591185</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>4393678</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>248618155</v>
       </c>
       <c r="D44" t="n">
+        <v>233864220</v>
+      </c>
+      <c r="E44" t="n">
         <v>2137760</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>119075049</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>15258212</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>8721290</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>84171010</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>4500899</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>253836398</v>
       </c>
       <c r="D45" t="n">
+        <v>239362573</v>
+      </c>
+      <c r="E45" t="n">
         <v>2137835</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>120985068</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>15858220</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>9126374</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>86633475</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>4621601</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>258796089</v>
       </c>
       <c r="D46" t="n">
+        <v>245046552</v>
+      </c>
+      <c r="E46" t="n">
         <v>2138172</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>123558374</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>16247206</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>9543754</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>88824164</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>4734882</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>264307549</v>
       </c>
       <c r="D47" t="n">
+        <v>250793864</v>
+      </c>
+      <c r="E47" t="n">
         <v>2138572</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>126959717</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>16619477</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>10005663</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>90199906</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>4870529</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>269819813</v>
       </c>
       <c r="D48" t="n">
+        <v>256292892</v>
+      </c>
+      <c r="E48" t="n">
         <v>2138699</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>130443021</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>16995332</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>10470626</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>91237176</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>5008038</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>275062077</v>
       </c>
       <c r="D49" t="n">
+        <v>261452062</v>
+      </c>
+      <c r="E49" t="n">
         <v>2140390</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>133901356</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>17343743</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>10842936</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>92090716</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>5132921</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>280705098</v>
       </c>
       <c r="D50" t="n">
+        <v>266889928</v>
+      </c>
+      <c r="E50" t="n">
         <v>2141661</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>137608647</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>17668781</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>11149051</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>93060977</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>5260811</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>287376171</v>
       </c>
       <c r="D51" t="n">
+        <v>272596707</v>
+      </c>
+      <c r="E51" t="n">
         <v>2231110</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>141144721</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>18140180</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>11310254</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>94375218</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>5395224</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>295335748</v>
       </c>
       <c r="D52" t="n">
+        <v>278940259</v>
+      </c>
+      <c r="E52" t="n">
         <v>2329690</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>144884550</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>18546785</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>11485677</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>96161825</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>5531732</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>17263945819</v>
       </c>
       <c r="D53" t="n">
+        <v>16601222877</v>
+      </c>
+      <c r="E53" t="n">
         <v>149172007</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>8376272397</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>1025883793</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>531894631</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>6222805719</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>295194330</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>304851038</v>
       </c>
       <c r="D54" t="n">
+        <v>285919697</v>
+      </c>
+      <c r="E54" t="n">
         <v>2441192</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>148692813</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>19157454</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>11660881</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>98301430</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>5665927</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>311712856</v>
       </c>
       <c r="D55" t="n">
+        <v>291959654</v>
+      </c>
+      <c r="E55" t="n">
         <v>2538581</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>151673566</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>19702615</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>11868389</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>100386848</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>5789655</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>318253056</v>
       </c>
       <c r="D56" t="n">
+        <v>298025625</v>
+      </c>
+      <c r="E56" t="n">
         <v>2632990</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>154097929</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>20224534</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>12203347</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>102939940</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>5926885</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>323684458</v>
       </c>
       <c r="D57" t="n">
+        <v>303601929</v>
+      </c>
+      <c r="E57" t="n">
         <v>2636485</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>156640211</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>20747303</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>12676641</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>104855980</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>6045309</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>328984743</v>
       </c>
       <c r="D58" t="n">
+        <v>310289656</v>
+      </c>
+      <c r="E58" t="n">
         <v>2639506</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>160267033</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>21162147</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>13163930</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>106884603</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>6172437</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>334296358</v>
       </c>
       <c r="D59" t="n">
+        <v>316162563</v>
+      </c>
+      <c r="E59" t="n">
         <v>2644287</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>163762070</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>21504450</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>13650686</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>108326695</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>6274375</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>339762647</v>
       </c>
       <c r="D60" t="n">
+        <v>320106273</v>
+      </c>
+      <c r="E60" t="n">
         <v>2644373</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>165546600</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>22033995</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>14133497</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>109351477</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>6396331</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>345273563</v>
       </c>
       <c r="D61" t="n">
+        <v>323931246</v>
+      </c>
+      <c r="E61" t="n">
         <v>2645324</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>167411052</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>22434604</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>14592707</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>110317313</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>6530246</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>350389764</v>
       </c>
       <c r="D62" t="n">
+        <v>327636828</v>
+      </c>
+      <c r="E62" t="n">
         <v>2645700</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>169458544</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>22872488</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>14958309</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>111052841</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>6648946</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>355785141</v>
       </c>
       <c r="D63" t="n">
+        <v>333143337</v>
+      </c>
+      <c r="E63" t="n">
         <v>2647391</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>173174102</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>23417710</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>15283412</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>111846269</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>6774453</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>363003956</v>
       </c>
       <c r="D64" t="n">
+        <v>339247433</v>
+      </c>
+      <c r="E64" t="n">
         <v>2741674</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>176827743</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>24093043</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>15498772</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>113175519</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>6910682</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>371929646</v>
       </c>
       <c r="D65" t="n">
+        <v>345726805</v>
+      </c>
+      <c r="E65" t="n">
         <v>2864147</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>180403088</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>24802597</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>15638441</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>114970360</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>7048172</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>38575818864</v>
       </c>
       <c r="D66" t="n">
+        <v>36998196800</v>
+      </c>
+      <c r="E66" t="n">
         <v>330065664</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>18720499545</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>2313920526</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>1229118274</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>13738020713</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>666572078</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>379849642</v>
       </c>
       <c r="D67" t="n">
+        <v>353498815</v>
+      </c>
+      <c r="E67" t="n">
         <v>2987582</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>183857040</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>25562345</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>15772253</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>118136080</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>7183515</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>388156044</v>
       </c>
       <c r="D68" t="n">
+        <v>361271189</v>
+      </c>
+      <c r="E68" t="n">
         <v>3101190</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>187273178</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>26148641</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>15993781</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>121449238</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>7305161</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>395864430</v>
       </c>
       <c r="D69" t="n">
+        <v>369478250</v>
+      </c>
+      <c r="E69" t="n">
         <v>3216029</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>190928764</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>26840945</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>16338526</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>124728002</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>7425984</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>401601724</v>
       </c>
       <c r="D70" t="n">
+        <v>376689508</v>
+      </c>
+      <c r="E70" t="n">
         <v>3216687</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>194104115</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>27370200</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>16767501</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>127697315</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>7533690</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>407001933</v>
       </c>
       <c r="D71" t="n">
+        <v>383113254</v>
+      </c>
+      <c r="E71" t="n">
         <v>3217436</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>196473362</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>27908402</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>17211358</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>130648478</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>7654218</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>412077636</v>
       </c>
       <c r="D72" t="n">
+        <v>388492186</v>
+      </c>
+      <c r="E72" t="n">
         <v>3217581</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>197814239</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>28288318</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>17756966</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>133660407</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>7754675</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>417880237</v>
       </c>
       <c r="D73" t="n">
+        <v>393248425</v>
+      </c>
+      <c r="E73" t="n">
         <v>3217910</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>199456711</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>28600830</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>18369750</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>135729898</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>7873326</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>423549449</v>
       </c>
       <c r="D74" t="n">
+        <v>396863719</v>
+      </c>
+      <c r="E74" t="n">
         <v>3217958</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>200690850</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>29016592</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>18924378</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>137016998</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>7996943</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>428732987</v>
       </c>
       <c r="D75" t="n">
+        <v>401934961</v>
+      </c>
+      <c r="E75" t="n">
         <v>3218028</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>203842166</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>29348168</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>19416859</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>138001181</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>8108559</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>434351553</v>
       </c>
       <c r="D76" t="n">
+        <v>407965825</v>
+      </c>
+      <c r="E76" t="n">
         <v>3220902</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>207525815</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>30065435</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>19728320</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>139192910</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>8232443</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>441141421</v>
       </c>
       <c r="D77" t="n">
+        <v>414536107</v>
+      </c>
+      <c r="E77" t="n">
         <v>3332373</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>211146101</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>30653795</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>19925824</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>141117382</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>8360632</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>448833127</v>
       </c>
       <c r="D78" t="n">
+        <v>420827182</v>
+      </c>
+      <c r="E78" t="n">
         <v>3463150</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>214673707</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>31306701</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>20072049</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>142819194</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>8492381</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>82130677911</v>
       </c>
       <c r="D79" t="n">
+        <v>78664313021</v>
+      </c>
+      <c r="E79" t="n">
         <v>698758154</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>39828785138</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>4968951424</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>2674514113</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>29066238509</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>1427065683</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>458141816</v>
       </c>
       <c r="D80" t="n">
+        <v>427718831</v>
+      </c>
+      <c r="E80" t="n">
         <v>3599122</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>218471930</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>32234131</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>20268091</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>144520816</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>8624741</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>465383424</v>
       </c>
       <c r="D81" t="n">
+        <v>433184000</v>
+      </c>
+      <c r="E81" t="n">
         <v>3719031</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>220989368</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>32759481</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>20601179</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>146364020</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>8750921</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>472044890</v>
       </c>
       <c r="D82" t="n">
+        <v>438638820</v>
+      </c>
+      <c r="E82" t="n">
         <v>3836499</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>223250914</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>33556634</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>21080434</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>148019201</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>8895138</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>478147087</v>
       </c>
       <c r="D83" t="n">
+        <v>444985394</v>
+      </c>
+      <c r="E83" t="n">
         <v>3837507</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>226708724</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>34236095</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>21537366</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>149653935</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>9011767</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>483576497</v>
       </c>
       <c r="D84" t="n">
+        <v>451638255</v>
+      </c>
+      <c r="E84" t="n">
         <v>3837659</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>229961923</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>35023344</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>22114867</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>151564296</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>9136166</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>488655842</v>
       </c>
       <c r="D85" t="n">
+        <v>456957211</v>
+      </c>
+      <c r="E85" t="n">
         <v>3837808</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>232471381</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>35462971</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>22722755</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>153209362</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>9252934</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>494616119</v>
       </c>
       <c r="D86" t="n">
+        <v>462063517</v>
+      </c>
+      <c r="E86" t="n">
         <v>3837901</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>235314019</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>35892478</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>23366957</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>154264366</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>9387796</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>500106133</v>
       </c>
       <c r="D87" t="n">
+        <v>467201864</v>
+      </c>
+      <c r="E87" t="n">
         <v>3837985</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>238412043</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>36219695</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>23982197</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>155218678</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>9531266</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>505286082</v>
       </c>
       <c r="D88" t="n">
+        <v>472253658</v>
+      </c>
+      <c r="E88" t="n">
         <v>3838530</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>241690255</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>36718609</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>24490395</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>155877012</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>9638857</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>510617939</v>
       </c>
       <c r="D89" t="n">
+        <v>476185102</v>
+      </c>
+      <c r="E89" t="n">
         <v>3839773</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>243597224</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>37366718</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>24824526</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>156798866</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>9757995</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>517608162</v>
       </c>
       <c r="D90" t="n">
+        <v>481598189</v>
+      </c>
+      <c r="E90" t="n">
         <v>3942984</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>245411858</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>38011062</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>25039415</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>159300220</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>9892650</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>525005553</v>
       </c>
       <c r="D91" t="n">
+        <v>489384226</v>
+      </c>
+      <c r="E91" t="n">
         <v>4078212</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>248563079</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>38810836</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>25234364</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>162668867</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>10028868</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>170160545366</v>
       </c>
       <c r="D92" t="n">
+        <v>162830435109</v>
+      </c>
+      <c r="E92" t="n">
         <v>1443559319</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>82462412994</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>10364194902</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>5624290772</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>59969936657</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>2966040465</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>533205963</v>
       </c>
       <c r="D93" t="n">
+        <v>496774491</v>
+      </c>
+      <c r="E93" t="n">
         <v>4214682</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>252178513</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>39501723</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>25449145</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>165263230</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>10167198</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>539895634</v>
       </c>
       <c r="D94" t="n">
+        <v>503279255</v>
+      </c>
+      <c r="E94" t="n">
         <v>4342454</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>255337670</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>40257359</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>25775921</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>167273925</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>10291926</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>546448190</v>
       </c>
       <c r="D95" t="n">
+        <v>510920829</v>
+      </c>
+      <c r="E95" t="n">
         <v>4456369</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>258767290</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>40990398</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>26217778</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>170068161</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>10420833</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>551470663</v>
       </c>
       <c r="D96" t="n">
+        <v>517030949</v>
+      </c>
+      <c r="E96" t="n">
         <v>4458612</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>261725019</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>41469262</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>26732245</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>172100867</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>10544944</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>556221545</v>
       </c>
       <c r="D97" t="n">
+        <v>524048075</v>
+      </c>
+      <c r="E97" t="n">
         <v>4458745</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>264990450</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>42008030</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>27374373</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>174551710</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>10664767</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>561129411</v>
       </c>
       <c r="D98" t="n">
+        <v>530719677</v>
+      </c>
+      <c r="E98" t="n">
         <v>4458782</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>268356329</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>42502189</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>28000930</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>176640949</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>10760498</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>566867240</v>
       </c>
       <c r="D99" t="n">
+        <v>536563335</v>
+      </c>
+      <c r="E99" t="n">
         <v>4458971</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>271680349</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>43003176</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>28717754</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>177825390</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>10877695</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>572439271</v>
       </c>
       <c r="D100" t="n">
+        <v>540868367</v>
+      </c>
+      <c r="E100" t="n">
         <v>4459060</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>273770738</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>43492728</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>29360269</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>178782912</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>11002660</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>577653032</v>
       </c>
       <c r="D101" t="n">
+        <v>543919573</v>
+      </c>
+      <c r="E101" t="n">
         <v>4459324</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>274820155</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>43967909</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>29876577</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>179694094</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>11101514</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>583679077</v>
       </c>
       <c r="D102" t="n">
+        <v>548706390</v>
+      </c>
+      <c r="E102" t="n">
         <v>4461991</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>276585153</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>44717310</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>30206572</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>181521591</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>11213773</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>589880162</v>
       </c>
       <c r="D103" t="n">
+        <v>552988437</v>
+      </c>
+      <c r="E103" t="n">
         <v>4552470</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>278024586</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>45342955</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>30479087</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>183256747</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>11332592</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>598155332</v>
       </c>
       <c r="D104" t="n">
+        <v>559390699</v>
+      </c>
+      <c r="E104" t="n">
         <v>4682124</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>280992555</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>46094328</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>30633958</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>185529862</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>11457872</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>347098136252</v>
       </c>
       <c r="D105" t="n">
+        <v>332026080295</v>
+      </c>
+      <c r="E105" t="n">
         <v>2940582222</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>168142054795</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>21241737171</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>11587406153</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>122052382752</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>6061917202</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>607364871</v>
       </c>
       <c r="D106" t="n">
+        <v>567529567</v>
+      </c>
+      <c r="E106" t="n">
         <v>4814827</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>284753889</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>46926075</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>30852009</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>188602845</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>11579922</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>613931098</v>
       </c>
       <c r="D107" t="n">
+        <v>575094667</v>
+      </c>
+      <c r="E107" t="n">
         <v>4936079</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>288117010</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>47712782</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>31127485</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>191510130</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>11691181</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>620591110</v>
       </c>
       <c r="D108" t="n">
+        <v>582735079</v>
+      </c>
+      <c r="E108" t="n">
         <v>5052917</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>291824971</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>48501549</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>31496066</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>194040382</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>11819194</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>626413054</v>
       </c>
       <c r="D109" t="n">
+        <v>589237516</v>
+      </c>
+      <c r="E109" t="n">
         <v>5053453</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>295455688</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>49068540</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>32108463</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>195610664</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>11940708</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>631665071</v>
       </c>
       <c r="D110" t="n">
+        <v>594291040</v>
+      </c>
+      <c r="E110" t="n">
         <v>5053560</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>297389004</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>49628993</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>32781413</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>197392255</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>12045815</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>636735511</v>
       </c>
       <c r="D111" t="n">
+        <v>598682148</v>
+      </c>
+      <c r="E111" t="n">
         <v>5053728</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>299184472</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>50058059</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>33468036</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>198803302</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>12114551</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>642266041</v>
       </c>
       <c r="D112" t="n">
+        <v>602931323</v>
+      </c>
+      <c r="E112" t="n">
         <v>5053793</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>301033867</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>50498584</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>34216575</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>199899665</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>12228839</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>647636475</v>
       </c>
       <c r="D113" t="n">
+        <v>606898902</v>
+      </c>
+      <c r="E113" t="n">
         <v>5053822</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>302831851</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>50835100</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>34950553</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>200869357</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>12358219</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>652719120</v>
       </c>
       <c r="D114" t="n">
+        <v>610130481</v>
+      </c>
+      <c r="E114" t="n">
         <v>5054255</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>304229252</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>51175692</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>35507361</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>201701922</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>12461999</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>658225418</v>
       </c>
       <c r="D115" t="n">
+        <v>614048200</v>
+      </c>
+      <c r="E115" t="n">
         <v>5057020</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>305987813</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>51748666</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>36036913</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>202632369</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>12585419</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>665383830</v>
       </c>
       <c r="D116" t="n">
+        <v>618328490</v>
+      </c>
+      <c r="E116" t="n">
         <v>5176035</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>307783211</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>52442609</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>36314691</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>203904823</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>12707121</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>673706771</v>
       </c>
       <c r="D117" t="n">
+        <v>624291415</v>
+      </c>
+      <c r="E117" t="n">
         <v>5327160</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>310648261</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>53057473</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>36582727</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>205846498</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>12829296</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>701872910874</v>
       </c>
       <c r="D118" t="n">
+        <v>671236359418</v>
+      </c>
+      <c r="E118" t="n">
         <v>5941851093</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>339873348879</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>43085128464</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>23580254598</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>246485579716</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>12270196668</v>
       </c>
     </row>
